--- a/tutorial/supply/tests/supplier_excel_data/门系统数据表.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/门系统数据表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE77688-4A18-EF47-80B3-DFC414B59CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39940" yWindow="2280" windowWidth="27260" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39945" yWindow="2280" windowWidth="27255" windowHeight="10905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,62 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>she</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asf-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23ds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.9.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玻璃轿门</t>
   </si>
   <si>
@@ -159,118 +102,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>she</t>
-  </si>
-  <si>
-    <t>门锁装置(厅门锁)</t>
-  </si>
-  <si>
-    <t>asf-8</t>
-  </si>
-  <si>
-    <t>23ds</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>集成同步门刀轿门锁</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>d3</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>层门</t>
-  </si>
-  <si>
-    <t>h3</t>
-  </si>
-  <si>
-    <t>h4</t>
-  </si>
-  <si>
-    <t>j1</t>
-  </si>
-  <si>
-    <t>防火门装置</t>
-  </si>
-  <si>
-    <t>j3</t>
-  </si>
-  <si>
-    <t>j4</t>
-  </si>
-  <si>
-    <t>玻璃轿壁</t>
-  </si>
-  <si>
-    <t>H2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.1.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k12</t>
+    <t>XZ22230535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西子电梯科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTA-3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSX F34001420170154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.08.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西子电梯科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTA-CS03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSX F34001420210157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.08.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD-2C55D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSX B33002720200212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.08.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JT2021DTP1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELD-I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.09.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD-2C-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州优迈科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州优迈科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSX B34002720190005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.08.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海宁市兰星特种玻璃制造有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+0.76+6 夹层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSX B35002220210001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.09.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +394,30 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,32 +436,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +457,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -600,23 +532,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -652,23 +567,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -844,118 +742,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y2" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
-    <col min="3" max="9" width="15.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="3" customWidth="1"/>
-    <col min="11" max="18" width="15.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="3" customWidth="1"/>
+    <col min="4" max="6" width="15.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="3" customWidth="1"/>
+    <col min="11" max="18" width="15.125" style="3" customWidth="1"/>
     <col min="19" max="19" width="18.5" style="3" customWidth="1"/>
-    <col min="20" max="38" width="15.1640625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="15.125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="27.625" style="3" customWidth="1"/>
+    <col min="22" max="24" width="15.125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="23.625" style="3" customWidth="1"/>
+    <col min="26" max="38" width="15.125" style="3" customWidth="1"/>
     <col min="39" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="17" customHeight="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="11" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="12" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="13" t="s">
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
     </row>
-    <row r="2" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
+    <row r="2" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" ht="39.75" customHeight="1">
+    <row r="3" spans="1:38" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1071,239 +977,163 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20230809110</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="9">
-        <v>45178</v>
+        <v>25</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>23</v>
+      <c r="K4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="4">
+        <v>20230809110</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="R4" s="4">
+        <v>20230901220</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="10">
-        <v>44446</v>
+        <v>32</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="X4" s="4">
+        <v>20230908330</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="10">
-        <v>44447</v>
+        <v>34</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>20230908550</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>44448</v>
+        <v>40</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>20230905330</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL4" s="10">
-        <v>44449</v>
+        <v>44</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="22">
-        <v>45086</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="24">
-        <v>44234</v>
-      </c>
-      <c r="U5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="W5" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="X5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z5" s="24">
-        <v>44263</v>
-      </c>
-      <c r="AA5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB5" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC5" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF5" s="24">
-        <v>44295</v>
-      </c>
-      <c r="AG5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI5" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL5" s="24">
-        <v>44326</v>
-      </c>
+    <row r="5" spans="1:38" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="16"/>
     </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="6" spans="1:38" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1345,7 +1175,7 @@
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
     </row>
-    <row r="7" spans="1:38" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="7" spans="1:38" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1387,7 +1217,7 @@
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
     </row>
-    <row r="8" spans="1:38" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="8" spans="1:38" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1429,7 +1259,7 @@
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
     </row>
-    <row r="9" spans="1:38" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="9" spans="1:38" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1471,7 +1301,7 @@
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1529,31 +1359,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14E9F1C-93B6-A041-9FE7-A49D093B38A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:9">
+    <row r="4" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="7:9">
+    <row r="5" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G5">
         <v>1</v>
       </c>
